--- a/Workbook3.xlsx
+++ b/Workbook3.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="4680" windowWidth="25360" windowHeight="13380" tabRatio="500"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="37160" windowHeight="19440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Meta</t>
   </si>
@@ -96,13 +97,112 @@
     <t>[{"name": "DaVinci", "value": "1161000", "parent":""},{"name": "P2O", "value": "1161000", "parent":"davinci"},
 {"name":"O2B","value":"1043000","parent":"davinci"},
 {"name":"group1","value":"1234","parent":"P2O"}]</t>
+  </si>
+  <si>
+    <t>C&amp;SB</t>
+  </si>
+  <si>
+    <t>MyTelstra</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>SECAT</t>
+  </si>
+  <si>
+    <t>Incredibles can be mapped to MyTelstra</t>
+  </si>
+  <si>
+    <t>Admin Page feature in HPSE to do parent child mapping of Teams with Capability,Portfolio etc</t>
+  </si>
+  <si>
+    <t>HPSE</t>
+  </si>
+  <si>
+    <t>meta_datas</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>team_meta_datas</t>
+  </si>
+  <si>
+    <t>TEAM_ID</t>
+  </si>
+  <si>
+    <t>META_ID</t>
+  </si>
+  <si>
+    <t>Bappy</t>
+  </si>
+  <si>
+    <t>meta_hierarchy</t>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>META_NAME</t>
+  </si>
+  <si>
+    <t>PARENT_NAME</t>
+  </si>
+  <si>
+    <t>ADMIN PANEL IN HPSE</t>
+  </si>
+  <si>
+    <t>FLOW FROM SECAT</t>
+  </si>
+  <si>
+    <t>YEARLY LEAD TIME FOR C&amp;SB</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Lead time for Year</t>
+  </si>
+  <si>
+    <t>24x7</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>const data = [
+    { arg: 'C&amp;SB', val: 3500, parentID: '' },
+    { arg: 'DaVinci', val: 3500, parentID: 'C&amp;SB' },
+    { arg: 'P2O, val: 3500, parentID: 'DaVinci' },
+    { arg: 'MyTelstra', val: 3000 parentID: 'P2O' },
+    { arg: '24x7', val: 500 parentID: 'P2O' }        
+];</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +250,14 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,27 +296,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -713,7 +886,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,164 +896,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
         <v>1161000</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>1043000</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>1043000</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>1161000</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>1161000</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>2161000</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>3161000</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>1111111111</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -888,4 +1061,472 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="13.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="M3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="M11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="M18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>4</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="20">
+        <v>5</v>
+      </c>
+      <c r="H24" s="20">
+        <v>5</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="20">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2">
+        <v>500</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E29:K35"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="M3:N8"/>
+    <mergeCell ref="M11:N14"/>
+    <mergeCell ref="M18:N23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>